--- a/Data/ProductNames, Location.xlsx
+++ b/Data/ProductNames, Location.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galea\Downloads\2022\Dissertation\Extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galea\Downloads\2022\Dissertation\Dissertation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00257B76-BF3A-4BE5-9F64-0EAAFD5BBCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D6D82-FD1D-4CD2-AA59-FA803F1E7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C877D34C-D417-4421-AD94-08ACDC0962D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$17:$D$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Locations</t>
   </si>
@@ -182,10 +185,109 @@
     <t>New_Product_Name</t>
   </si>
   <si>
-    <t>27, 31</t>
-  </si>
-  <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>skincare</t>
+  </si>
+  <si>
+    <t>dermafiller</t>
+  </si>
+  <si>
+    <t>profilho</t>
+  </si>
+  <si>
+    <t>skinbooster</t>
+  </si>
+  <si>
+    <t>Skincare</t>
+  </si>
+  <si>
+    <t>skin booster needles</t>
+  </si>
+  <si>
+    <t>needles</t>
+  </si>
+  <si>
+    <t>facemask</t>
+  </si>
+  <si>
+    <t>pills</t>
+  </si>
+  <si>
+    <t>mesotherapy</t>
+  </si>
+  <si>
+    <t>mesotherapy needles</t>
+  </si>
+  <si>
+    <t>sunblock</t>
+  </si>
+  <si>
+    <t>injection 1</t>
+  </si>
+  <si>
+    <t>injection 2</t>
+  </si>
+  <si>
+    <t>injection 3</t>
+  </si>
+  <si>
+    <t>injection 4</t>
+  </si>
+  <si>
+    <t>injection 5</t>
+  </si>
+  <si>
+    <t>injection 6</t>
+  </si>
+  <si>
+    <t>injection 7</t>
+  </si>
+  <si>
+    <t>injection 8</t>
+  </si>
+  <si>
+    <t>injection 9</t>
+  </si>
+  <si>
+    <t>cream 1</t>
+  </si>
+  <si>
+    <t>cream 2</t>
+  </si>
+  <si>
+    <t>cream 3</t>
+  </si>
+  <si>
+    <t>cream 4</t>
+  </si>
+  <si>
+    <t>foundation 1</t>
+  </si>
+  <si>
+    <t>foundation 2</t>
+  </si>
+  <si>
+    <t>injection 10</t>
+  </si>
+  <si>
+    <t>injection 11</t>
+  </si>
+  <si>
+    <t>injection 12</t>
+  </si>
+  <si>
+    <t>injection 13</t>
+  </si>
+  <si>
+    <t>injection 14</t>
+  </si>
+  <si>
+    <t>Make-up Remover</t>
+  </si>
+  <si>
+    <t>26, 31</t>
   </si>
 </sst>
 </file>
@@ -556,16 +658,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E3C3D3-E1D4-4240-9F83-ED05D026802B}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -676,180 +779,388 @@
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
       <c r="D19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
       <c r="D21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
       <c r="D25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A17:D48" xr:uid="{08E3C3D3-E1D4-4240-9F83-ED05D026802B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A48">
     <sortCondition ref="A48"/>
   </sortState>

--- a/Data/ProductNames, Location.xlsx
+++ b/Data/ProductNames, Location.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galea\Downloads\2022\Dissertation\Dissertation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D6D82-FD1D-4CD2-AA59-FA803F1E7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0339AEE1-F778-4AF4-A4B8-DE55A373112E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C877D34C-D417-4421-AD94-08ACDC0962D7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>Locations</t>
   </si>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E3C3D3-E1D4-4240-9F83-ED05D026802B}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,12 +671,12 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -684,23 +684,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -708,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -716,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -724,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -732,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -740,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -748,7 +754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -756,15 +762,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
